--- a/(BK21) Required Course List (Completion Conditions) and Graduation Requirements for Scholarship Recipients.xlsx
+++ b/(BK21) Required Course List (Completion Conditions) and Graduation Requirements for Scholarship Recipients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loka\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\WA1864 Linear Systems Theory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C807D1C-74BB-4BFC-95ED-A2EAE7483040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C4C483-404C-4397-9266-E6A2CD436C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -565,6 +565,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -627,9 +630,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,30 +913,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.26953125" customWidth="1"/>
-    <col min="2" max="2" width="28.90625" customWidth="1"/>
-    <col min="3" max="3" width="34.90625" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="8.81640625" customWidth="1"/>
-    <col min="13" max="13" width="12.6328125" customWidth="1"/>
-    <col min="14" max="14" width="2.81640625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15" thickBot="1"/>
-    <row r="2" spans="2:22" ht="69.650000000000006" customHeight="1" thickBot="1">
-      <c r="B2" s="20" t="s">
+    <row r="1" spans="2:22" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:22" ht="69.599999999999994" customHeight="1" thickBot="1">
+      <c r="B2" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-    </row>
-    <row r="4" spans="2:22" ht="37.25" customHeight="1">
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="4" spans="2:22" ht="37.35" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>38</v>
       </c>
@@ -947,7 +947,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="26">
+    <row r="5" spans="2:22" ht="25.5">
       <c r="B5" s="2" t="s">
         <v>33</v>
       </c>
@@ -957,29 +957,29 @@
       <c r="D5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="26"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="13"/>
-    </row>
-    <row r="6" spans="2:22" ht="26">
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="14"/>
+    </row>
+    <row r="6" spans="2:22" ht="25.5">
       <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
@@ -989,25 +989,25 @@
       <c r="D6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="28"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="29"/>
       <c r="N6" s="8"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="16"/>
-    </row>
-    <row r="7" spans="2:22" ht="26">
+      <c r="O6" s="15"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="17"/>
+    </row>
+    <row r="7" spans="2:22" ht="25.5">
       <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
@@ -1017,25 +1017,25 @@
       <c r="D7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="28"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="29"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="16"/>
-    </row>
-    <row r="8" spans="2:22" ht="26">
+      <c r="O7" s="15"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="17"/>
+    </row>
+    <row r="8" spans="2:22" ht="25.5">
       <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
@@ -1045,25 +1045,25 @@
       <c r="D8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="28"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="29"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="16"/>
-    </row>
-    <row r="9" spans="2:22" ht="26">
+      <c r="O8" s="15"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="17"/>
+    </row>
+    <row r="9" spans="2:22" ht="25.5">
       <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
@@ -1073,25 +1073,25 @@
       <c r="D9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="28"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="29"/>
       <c r="N9" s="8"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="16"/>
-    </row>
-    <row r="10" spans="2:22" ht="26">
+      <c r="O9" s="15"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="17"/>
+    </row>
+    <row r="10" spans="2:22" ht="25.5">
       <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
@@ -1101,25 +1101,25 @@
       <c r="D10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="28"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="29"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="16"/>
-    </row>
-    <row r="11" spans="2:22" ht="26">
+      <c r="O10" s="15"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="17"/>
+    </row>
+    <row r="11" spans="2:22" ht="25.5">
       <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1129,25 +1129,25 @@
       <c r="D11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="28"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="29"/>
       <c r="N11" s="8"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="16"/>
-    </row>
-    <row r="12" spans="2:22" ht="26">
+      <c r="O11" s="15"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="17"/>
+    </row>
+    <row r="12" spans="2:22" ht="25.5">
       <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
@@ -1157,25 +1157,25 @@
       <c r="D12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="28"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="29"/>
       <c r="N12" s="8"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="16"/>
-    </row>
-    <row r="13" spans="2:22" ht="26">
+      <c r="O12" s="15"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="17"/>
+    </row>
+    <row r="13" spans="2:22" ht="25.5">
       <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
@@ -1185,25 +1185,25 @@
       <c r="D13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="31"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="32"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="19"/>
-    </row>
-    <row r="14" spans="2:22" ht="26">
+      <c r="O13" s="18"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="20"/>
+    </row>
+    <row r="14" spans="2:22" ht="25.5">
       <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1231,7 +1231,7 @@
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
     </row>
-    <row r="15" spans="2:22" ht="26">
+    <row r="15" spans="2:22" ht="25.5">
       <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
@@ -1241,29 +1241,29 @@
       <c r="D15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="26"/>
       <c r="N15" s="8"/>
-      <c r="O15" s="11" t="s">
+      <c r="O15" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="13"/>
-    </row>
-    <row r="16" spans="2:22" ht="26">
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="14"/>
+    </row>
+    <row r="16" spans="2:22" ht="25.5">
       <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
@@ -1273,23 +1273,23 @@
       <c r="D16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="28"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="29"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="16"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="17"/>
     </row>
     <row r="17" spans="2:22" ht="16.5" customHeight="1">
       <c r="B17" s="2" t="s">
@@ -1301,25 +1301,25 @@
       <c r="D17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="28"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="29"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="16"/>
-    </row>
-    <row r="18" spans="2:22" ht="26">
+      <c r="O17" s="15"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="17"/>
+    </row>
+    <row r="18" spans="2:22" ht="25.5">
       <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1329,23 +1329,23 @@
       <c r="D18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="28"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29"/>
       <c r="N18" s="8"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="16"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="17"/>
     </row>
     <row r="19" spans="2:22" ht="16.5" customHeight="1">
       <c r="B19" s="2" t="s">
@@ -1357,25 +1357,25 @@
       <c r="D19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="28"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="29"/>
       <c r="N19" s="8"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="16"/>
-    </row>
-    <row r="20" spans="2:22" ht="39">
+      <c r="O19" s="15"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="17"/>
+    </row>
+    <row r="20" spans="2:22" ht="38.25">
       <c r="B20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1385,25 +1385,25 @@
       <c r="D20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="28"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="29"/>
       <c r="N20" s="8"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="16"/>
-    </row>
-    <row r="21" spans="2:22" ht="26">
+      <c r="O20" s="15"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="17"/>
+    </row>
+    <row r="21" spans="2:22" ht="25.5">
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
@@ -1413,25 +1413,25 @@
       <c r="D21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="28"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="29"/>
       <c r="N21" s="8"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="16"/>
-    </row>
-    <row r="22" spans="2:22" ht="26">
+      <c r="O21" s="15"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="17"/>
+    </row>
+    <row r="22" spans="2:22" ht="25.5">
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
@@ -1441,25 +1441,25 @@
       <c r="D22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="28"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="29"/>
       <c r="N22" s="8"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="16"/>
-    </row>
-    <row r="23" spans="2:22" ht="26">
+      <c r="O22" s="15"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="17"/>
+    </row>
+    <row r="23" spans="2:22" ht="25.5">
       <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
@@ -1469,23 +1469,23 @@
       <c r="D23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="28"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="29"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="16"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="17"/>
     </row>
     <row r="24" spans="2:22" ht="16.5" customHeight="1">
       <c r="B24" s="2" t="s">
@@ -1497,23 +1497,23 @@
       <c r="D24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="31"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="32"/>
       <c r="N24" s="8"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="19"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="20"/>
     </row>
     <row r="25" spans="2:22" ht="16.5" customHeight="1">
       <c r="B25" s="2" t="s">
@@ -1555,7 +1555,7 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
     </row>
-    <row r="27" spans="2:22" ht="26">
+    <row r="27" spans="2:22" ht="25.5">
       <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
@@ -1575,11 +1575,11 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" spans="2:22" ht="29">
+    <row r="28" spans="2:22" ht="30">
       <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="11" t="s">
         <v>66</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -1595,11 +1595,11 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
     </row>
-    <row r="29" spans="2:22" ht="43.5">
+    <row r="29" spans="2:22" ht="45">
       <c r="B29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -1615,11 +1615,11 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="2:22" ht="29">
+    <row r="30" spans="2:22" ht="30">
       <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="11" t="s">
         <v>68</v>
       </c>
       <c r="D30" s="4" t="s">
